--- a/Golf.Excel.Tests/bin/Debug/Template.xlsx
+++ b/Golf.Excel.Tests/bin/Debug/Template.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Course" sheetId="1" r:id="rId1"/>
     <sheet name="Teeboxes" sheetId="2" r:id="rId2"/>
-    <sheet name="Scorecard" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,7 +106,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -182,6 +181,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -217,6 +233,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,13 +432,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.15625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -428,16 +461,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="6" width="12.85546875" customWidth="1"/>
+    <col min="1" max="6" width="12.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -461,18 +494,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>